--- a/new_modules/Summary_2023-05-10_L2A.xlsx
+++ b/new_modules/Summary_2023-05-10_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1300.866821289062</v>
+        <v>1262.28466796875</v>
       </c>
       <c r="C2">
-        <v>0.9759</v>
+        <v>0.947</v>
       </c>
       <c r="D2">
-        <v>0.9523000121116638</v>
+        <v>0.9221000075340271</v>
       </c>
       <c r="E2">
-        <v>1.416100025177002</v>
+        <v>1.420600056648254</v>
       </c>
       <c r="F2">
-        <v>0.8183000087738037</v>
+        <v>0.8230999708175659</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>1.0393</v>
+        <v>0.7718</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1262.590942382812</v>
+        <v>1135.424072265625</v>
       </c>
       <c r="C3">
-        <v>1.0101</v>
+        <v>0.9083</v>
       </c>
       <c r="D3">
-        <v>0.9792</v>
+        <v>0.9111</v>
       </c>
       <c r="E3">
-        <v>1.610399961471558</v>
+        <v>1.069200038909912</v>
       </c>
       <c r="F3">
-        <v>0.6743999719619751</v>
+        <v>0.8026999831199646</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.2774</v>
+        <v>0.6742</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>829.8093872070312</v>
+        <v>782.131591796875</v>
       </c>
       <c r="C4">
-        <v>0.9694</v>
+        <v>0.9137</v>
       </c>
       <c r="D4">
-        <v>0.9274</v>
+        <v>0.9114</v>
       </c>
       <c r="E4">
-        <v>1.661999940872192</v>
+        <v>1.040899991989136</v>
       </c>
       <c r="F4">
-        <v>0.7473999857902527</v>
+        <v>0.8173999786376953</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.819</v>
+        <v>0.6775</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>808.5142822265625</v>
+        <v>872.0767211914062</v>
       </c>
       <c r="C5">
-        <v>0.8529</v>
+        <v>0.9199000000000001</v>
       </c>
       <c r="D5">
-        <v>0.855</v>
+        <v>0.9207</v>
       </c>
       <c r="E5">
-        <v>1.172199964523315</v>
+        <v>1.004299998283386</v>
       </c>
       <c r="F5">
-        <v>0.5960999727249146</v>
+        <v>0.8400999903678894</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.1778</v>
+        <v>0.7594</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1085.89892578125</v>
+        <v>1147.35986328125</v>
       </c>
       <c r="C6">
-        <v>0.8591</v>
+        <v>0.9077</v>
       </c>
       <c r="D6">
-        <v>0.858</v>
+        <v>0.9076</v>
       </c>
       <c r="E6">
-        <v>1.069000005722046</v>
+        <v>0.9861000180244446</v>
       </c>
       <c r="F6">
-        <v>0.6510999798774719</v>
+        <v>0.832099974155426</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.2042</v>
+        <v>0.6438</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>835.801025390625</v>
+        <v>902.7155151367188</v>
       </c>
       <c r="C7">
-        <v>0.8417</v>
+        <v>0.9091</v>
       </c>
       <c r="D7">
-        <v>0.8393999934196472</v>
+        <v>0.9067000150680542</v>
       </c>
       <c r="E7">
-        <v>1.061100006103516</v>
+        <v>1.003299951553345</v>
       </c>
       <c r="F7">
-        <v>0.6751999855041504</v>
+        <v>0.8435999751091003</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.0397</v>
+        <v>0.6359</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>909.7056884765625</v>
+        <v>1020.027526855469</v>
       </c>
       <c r="C8">
-        <v>0.8151</v>
+        <v>0.914</v>
       </c>
       <c r="D8">
-        <v>0.8134</v>
+        <v>0.9133</v>
       </c>
       <c r="E8">
-        <v>1.08050000667572</v>
+        <v>0.9890999794006348</v>
       </c>
       <c r="F8">
-        <v>0.6912000179290771</v>
+        <v>0.8457000255584717</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>-0.191</v>
+        <v>0.6936</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7033.18701171875</v>
+        <v>7122.01953125</v>
       </c>
       <c r="C9">
-        <v>0.9065</v>
+        <v>0.9177999999999999</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>1.661999940872192</v>
+        <v>1.420600056648254</v>
       </c>
       <c r="F9">
-        <v>0.5960999727249146</v>
+        <v>0.8026999831199646</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.3664</v>
+        <v>4.8562</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-05-10_L2A.xlsx
+++ b/new_modules/Summary_2023-05-10_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1262.28466796875</v>
+        <v>1300.617065429688</v>
       </c>
       <c r="C2">
-        <v>0.947</v>
+        <v>0.9757</v>
       </c>
       <c r="D2">
-        <v>0.9221000075340271</v>
+        <v>0.9520999789237976</v>
       </c>
       <c r="E2">
-        <v>1.420600056648254</v>
+        <v>1.415799975395203</v>
       </c>
       <c r="F2">
-        <v>0.8230999708175659</v>
+        <v>0.8181999921798706</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.7718</v>
+        <v>1.0377</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1135.424072265625</v>
+        <v>1262.348510742188</v>
       </c>
       <c r="C3">
-        <v>0.9083</v>
+        <v>1.0099</v>
       </c>
       <c r="D3">
-        <v>0.9111</v>
+        <v>0.979</v>
       </c>
       <c r="E3">
-        <v>1.069200038909912</v>
+        <v>1.610100030899048</v>
       </c>
       <c r="F3">
-        <v>0.8026999831199646</v>
+        <v>0.6743000149726868</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.6742</v>
+        <v>1.2757</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>782.131591796875</v>
+        <v>829.6500244140625</v>
       </c>
       <c r="C4">
-        <v>0.9137</v>
+        <v>0.9692</v>
       </c>
       <c r="D4">
-        <v>0.9114</v>
+        <v>0.9272</v>
       </c>
       <c r="E4">
-        <v>1.040899991989136</v>
+        <v>1.661700010299683</v>
       </c>
       <c r="F4">
-        <v>0.8173999786376953</v>
+        <v>0.7473000288009644</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.6775</v>
+        <v>0.8174</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>872.0767211914062</v>
+        <v>808.3590087890625</v>
       </c>
       <c r="C5">
-        <v>0.9199000000000001</v>
+        <v>0.8527</v>
       </c>
       <c r="D5">
-        <v>0.9207</v>
+        <v>0.8549</v>
       </c>
       <c r="E5">
-        <v>1.004299998283386</v>
+        <v>1.171900033950806</v>
       </c>
       <c r="F5">
-        <v>0.8400999903678894</v>
+        <v>0.5960000157356262</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.7594</v>
+        <v>0.1764</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1147.35986328125</v>
+        <v>1085.690307617188</v>
       </c>
       <c r="C6">
-        <v>0.9077</v>
+        <v>0.8589</v>
       </c>
       <c r="D6">
-        <v>0.9076</v>
+        <v>0.8578</v>
       </c>
       <c r="E6">
-        <v>0.9861000180244446</v>
+        <v>1.06879997253418</v>
       </c>
       <c r="F6">
-        <v>0.832099974155426</v>
+        <v>0.6510000228881836</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.6438</v>
+        <v>0.2027</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>902.7155151367188</v>
+        <v>835.6405029296875</v>
       </c>
       <c r="C7">
-        <v>0.9091</v>
+        <v>0.8415</v>
       </c>
       <c r="D7">
-        <v>0.9067000150680542</v>
+        <v>0.8392999768257141</v>
       </c>
       <c r="E7">
-        <v>1.003299951553345</v>
+        <v>1.060899972915649</v>
       </c>
       <c r="F7">
-        <v>0.8435999751091003</v>
+        <v>0.675000011920929</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.6359</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1020.027526855469</v>
+        <v>909.531005859375</v>
       </c>
       <c r="C8">
-        <v>0.914</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D8">
-        <v>0.9133</v>
+        <v>0.8132</v>
       </c>
       <c r="E8">
-        <v>0.9890999794006348</v>
+        <v>1.080299973487854</v>
       </c>
       <c r="F8">
-        <v>0.8457000255584717</v>
+        <v>0.6909999847412109</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.6936</v>
+        <v>-0.1924</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7122.01953125</v>
+        <v>7031.8369140625</v>
       </c>
       <c r="C9">
-        <v>0.9177999999999999</v>
+        <v>0.9063</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.420600056648254</v>
+        <v>1.661700010299683</v>
       </c>
       <c r="F9">
-        <v>0.8026999831199646</v>
+        <v>0.5960000157356262</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>4.8562</v>
+        <v>3.3558</v>
       </c>
     </row>
   </sheetData>
